--- a/src/ainex_arm/ainex_sheets/left_salute_sheet.xlsx
+++ b/src/ainex_arm/ainex_sheets/left_salute_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Servo1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t xml:space="preserve">Servo3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servo4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servo5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servo6</t>
   </si>
   <si>
     <t xml:space="preserve">Delay</t>
@@ -324,10 +333,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -345,6 +354,15 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -359,18 +377,36 @@
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>-90</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="E3" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>-90</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>-90</v>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="G3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -385,6 +421,15 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>0</v>
       </c>
     </row>
